--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Install\Cloud\Работа верстка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\gaza-dostavka\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,34 +703,34 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -748,18 +748,18 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>index-page.html</t>
+  </si>
+  <si>
+    <t>catalog.html</t>
   </si>
 </sst>
 </file>
@@ -669,24 +675,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -694,7 +701,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -702,7 +709,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -710,7 +717,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -718,7 +725,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -726,7 +733,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -734,12 +741,15 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -747,7 +757,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -755,7 +765,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -763,16 +773,19 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>catalog.html</t>
+  </si>
+  <si>
+    <t>gas-equipment.html</t>
+  </si>
+  <si>
+    <t>pressure-regulator.html</t>
   </si>
 </sst>
 </file>
@@ -333,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,8 +365,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +384,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -382,11 +401,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,9 +414,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,65 +811,71 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -855,7 +883,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -863,7 +891,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -871,7 +899,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -879,7 +907,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -1054,12 +1082,12 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -1067,15 +1095,16 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>32</v>
       </c>
@@ -1083,7 +1112,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>33</v>
       </c>
@@ -1091,7 +1120,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>34</v>
       </c>
@@ -1099,7 +1128,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>35</v>
       </c>
@@ -1107,7 +1136,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>36</v>
       </c>
@@ -1115,7 +1144,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>37</v>
       </c>
@@ -1123,7 +1152,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>38</v>
       </c>
@@ -1131,12 +1160,12 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -1144,7 +1173,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1152,7 +1181,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>40</v>
       </c>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,26 +884,26 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -937,10 +937,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>pressure-regulator.html</t>
+  </si>
+  <si>
+    <t>pressure-regulator-inner.html</t>
+  </si>
+  <si>
+    <t>stop-valve.html</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -415,6 +421,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -699,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +715,7 @@
     <col min="1" max="1" width="66.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="79.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -876,10 +884,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="8">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -911,32 +919,35 @@
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
@@ -944,49 +955,52 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -994,7 +1008,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1002,7 +1016,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -1010,7 +1024,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -1082,12 +1096,12 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -1095,16 +1109,15 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>32</v>
       </c>
@@ -1112,7 +1125,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>33</v>
       </c>
@@ -1120,7 +1133,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>34</v>
       </c>
@@ -1128,7 +1141,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>35</v>
       </c>
@@ -1136,7 +1149,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>36</v>
       </c>
@@ -1144,7 +1157,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>37</v>
       </c>
@@ -1152,7 +1165,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>38</v>
       </c>
@@ -1160,12 +1173,12 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1186,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1181,7 +1194,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -1189,15 +1202,16 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>41</v>
       </c>
       <c r="B81" s="1">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -1205,7 +1219,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -1213,7 +1227,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -1221,7 +1235,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -1229,7 +1243,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -1237,12 +1251,12 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -1250,7 +1264,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -1258,7 +1272,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -1266,7 +1280,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -1274,12 +1288,12 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -1287,7 +1301,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>stop-valve.html</t>
+  </si>
+  <si>
+    <t>gas-cylinders.html</t>
+  </si>
+  <si>
+    <t>counters.html</t>
+  </si>
+  <si>
+    <t>autonomous-sewerage.html</t>
   </si>
 </sst>
 </file>
@@ -706,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,56 +1008,65 @@
       <c r="A44" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="6">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="6">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B50" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>65</v>
       </c>
@@ -1056,7 +1074,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
@@ -1064,7 +1082,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>67</v>
       </c>
@@ -1072,7 +1090,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
@@ -1080,7 +1098,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -345,6 +345,21 @@
   </si>
   <si>
     <t>autonomous-sewerage.html</t>
+  </si>
+  <si>
+    <t>gasholders.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В дополнительном оборудовании сделать input</t>
+  </si>
+  <si>
+    <t>gok.html</t>
+  </si>
+  <si>
+    <t>backup-gas-supply.html</t>
+  </si>
+  <si>
+    <t>gas-generator.html</t>
   </si>
 </sst>
 </file>
@@ -713,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1059,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>63</v>
       </c>
@@ -1055,7 +1070,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -1065,40 +1080,58 @@
       <c r="C52" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="D52" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B54" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B56" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
@@ -1106,7 +1139,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>gas-generator.html</t>
+  </si>
+  <si>
+    <t>ups.html</t>
+  </si>
+  <si>
+    <t>services.html</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -445,7 +451,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -730,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,10 +913,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -1121,10 +1126,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C60" t="s">
@@ -1132,19 +1137,25 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="1">
-        <v>2.0833333333333332E-2</v>
+      <c r="B62" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="6">
         <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,16 +1264,15 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>41</v>
       </c>
       <c r="B81" s="1">
         <v>0.10416666666666667</v>
       </c>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -1270,7 +1280,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -1278,7 +1288,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -1286,7 +1296,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -1294,7 +1304,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -1302,12 +1312,12 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1325,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -1323,7 +1333,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -1331,7 +1341,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -1339,12 +1349,12 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -1352,7 +1362,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>services.html</t>
+  </si>
+  <si>
+    <t>shipment.html</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
   <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:B64"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,12 +1161,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>31</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>32</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>34</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>35</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>36</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>37</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>38</v>
       </c>
@@ -1235,12 +1241,12 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>40</v>
       </c>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1376,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -1408,12 +1408,12 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>55</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -1453,12 +1453,12 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>77</v>
       </c>
@@ -1474,13 +1474,14 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>78</v>
       </c>
       <c r="B112" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -348,9 +348,6 @@
   </si>
   <si>
     <t>gasholders.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> В дополнительном оборудовании сделать input</t>
   </si>
   <si>
     <t>gok.html</t>
@@ -378,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,16 +401,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,11 +412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -440,12 +424,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -453,11 +436,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -736,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1048,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>63</v>
       </c>
@@ -1078,7 +1059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -1088,11 +1069,8 @@
       <c r="C52" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>65</v>
       </c>
@@ -1102,11 +1080,8 @@
       <c r="C54" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>66</v>
       </c>
@@ -1114,10 +1089,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>67</v>
       </c>
@@ -1125,10 +1100,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>68</v>
       </c>
@@ -1136,10 +1111,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>69</v>
       </c>
@@ -1147,10 +1122,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>70</v>
       </c>
@@ -1158,7 +1133,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,78 +1141,78 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="6">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -1376,7 +1351,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -1384,7 +1359,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -1392,7 +1367,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -1400,7 +1375,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -1408,12 +1383,12 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -1421,7 +1396,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -1429,7 +1404,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -1437,7 +1412,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>55</v>
       </c>
@@ -1445,7 +1420,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -1453,12 +1428,12 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1441,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>77</v>
       </c>
@@ -1474,14 +1449,13 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>78</v>
       </c>
       <c r="B112" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C112" s="7"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>shipment.html</t>
+  </si>
+  <si>
+    <t>gasification.html</t>
   </si>
 </sst>
 </file>
@@ -719,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:B147"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,12 +1223,15 @@
       <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="C77" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -378,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,8 +404,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +423,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,11 +440,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -439,9 +453,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,22 +1252,22 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -1259,7 +1275,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -1267,7 +1283,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -1275,7 +1291,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -1283,7 +1299,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -1291,20 +1307,20 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1328,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -1320,7 +1336,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -1328,20 +1344,21 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>46</v>
       </c>
       <c r="B92" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="7"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -1349,7 +1366,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:B80"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,10 +1268,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="6">
         <v>0.10416666666666667</v>
       </c>
     </row>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>gasification.html</t>
+  </si>
+  <si>
+    <t>sewerages.html</t>
   </si>
 </sst>
 </file>
@@ -738,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:B82"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,34 +1279,34 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -1318,6 +1321,9 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="C88" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -741,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>sewerages.html</t>
+  </si>
+  <si>
+    <t>steamshop.html</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,16 +410,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,11 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -443,12 +433,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,11 +445,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,41 +1314,43 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="6">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C92" s="7"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="C94" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -375,6 +376,9 @@
   </si>
   <si>
     <t>steamshop.html</t>
+  </si>
+  <si>
+    <t>power-source.html</t>
   </si>
 </sst>
 </file>
@@ -728,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,22 +1358,22 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -1401,12 +1405,15 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -1414,7 +1421,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>39</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -1430,7 +1437,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>55</v>
       </c>
@@ -1438,7 +1445,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -1446,12 +1453,12 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>77</v>
       </c>
@@ -1467,7 +1474,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>78</v>
       </c>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -379,6 +378,24 @@
   </si>
   <si>
     <t>power-source.html</t>
+  </si>
+  <si>
+    <t>cylinder-exchange.html</t>
+  </si>
+  <si>
+    <t>station-network.html</t>
+  </si>
+  <si>
+    <t>refilling-car.html</t>
+  </si>
+  <si>
+    <t>refilling-cylinders.html</t>
+  </si>
+  <si>
+    <t>discounts-card.html</t>
+  </si>
+  <si>
+    <t>affiliate-program.html</t>
   </si>
 </sst>
 </file>
@@ -388,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,8 +431,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +450,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,11 +467,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,9 +480,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -732,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,34 +1408,34 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
@@ -1414,42 +1448,42 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="6">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
@@ -1457,106 +1491,124 @@
       <c r="A109" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B112" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B112" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="8">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="6">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B117" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="B117" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="6">
         <v>2.7777777777777776E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="C119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B121" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="6">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B125" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B127" s="1">
         <v>6.25E-2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="130">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -311,9 +311,6 @@
     <t>32. Статьи</t>
   </si>
   <si>
-    <t>33. Статьи</t>
-  </si>
-  <si>
     <t>34. Контакты</t>
   </si>
   <si>
@@ -396,6 +393,27 @@
   </si>
   <si>
     <t>affiliate-program.html</t>
+  </si>
+  <si>
+    <t>service.html</t>
+  </si>
+  <si>
+    <t>decontamination.html</t>
+  </si>
+  <si>
+    <t>services-gasholder.html</t>
+  </si>
+  <si>
+    <t>useful-information.html</t>
+  </si>
+  <si>
+    <t>stocks.html</t>
+  </si>
+  <si>
+    <t>articles.html</t>
+  </si>
+  <si>
+    <t>33. Статьи (внутреняя)</t>
   </si>
 </sst>
 </file>
@@ -472,11 +490,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -766,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,50 +801,50 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -836,30 +853,30 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -868,30 +885,30 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
@@ -900,22 +917,22 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -924,54 +941,54 @@
         <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -980,54 +997,54 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -1036,22 +1053,22 @@
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -1060,127 +1077,127 @@
         <v>62</v>
       </c>
       <c r="C44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="5">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C50" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="6">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="6">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C52" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C54" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C58" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C60" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C60" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C62" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C62" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C64" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="6">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,78 +1205,78 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -1268,78 +1285,78 @@
         <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
@@ -1348,38 +1365,38 @@
         <v>73</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="5">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="5">
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
@@ -1388,54 +1405,54 @@
         <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
@@ -1444,46 +1461,46 @@
         <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
@@ -1492,88 +1509,88 @@
         <v>76</v>
       </c>
       <c r="C109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="5">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="5">
+        <v>6.9444444444444441E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B111" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B112" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B113" s="8">
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114" s="6">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B115" s="6">
-        <v>6.9444444444444441E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B117" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C117" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" s="5">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C119" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B119" s="6">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="C119" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C121" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B121" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C121" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,100 +1598,118 @@
         <v>84</v>
       </c>
       <c r="C123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C127" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B125" s="6">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B127" s="1">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C127" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C129" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B129" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="5">
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="C131" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B133" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="C135" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="5">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="5">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B139" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="B139" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B141" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B143" s="1">
         <v>6.25E-2</v>
@@ -1682,7 +1717,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B145" s="1">
         <v>0.125</v>
@@ -1690,9 +1725,9 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B148" s="4">
+        <v>96</v>
+      </c>
+      <c r="B148" s="3">
         <f>SUM(B3:B147)</f>
         <v>3.3749999999999991</v>
       </c>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
   <si>
     <t>Оценка Разработка desktop вёрстки для сайта gaza-dostavka.ru</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>33. Статьи (внутреняя)</t>
+  </si>
+  <si>
+    <t>articles-inner.html</t>
+  </si>
+  <si>
+    <t>contacts.html</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,16 +455,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,11 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -485,24 +478,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -783,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,10 +1526,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="5">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -1708,22 +1697,28 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="5">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="C143" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="5">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>96</v>
       </c>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:B145"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
+++ b/desktop вёрстка для сайта gaza-dostavka.ru.xlsx
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
